--- a/projectWebsite/deliverables/sprint2/BookLibrary-Sprint2_ProjectBacklog.xlsx
+++ b/projectWebsite/deliverables/sprint2/BookLibrary-Sprint2_ProjectBacklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikay\school\CS 495\Book-Library-Project\projectWebsite\deliverables\sprint2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f25b5186b135ce9/College/Junior S2/CS 495/Sprint2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD6B0150-37DB-4804-847E-1D2B51832E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{AD6B0150-37DB-4804-847E-1D2B51832E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B31C2837-CAA8-46C3-982D-CFFEAC5AFC99}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -85,20 +85,23 @@
     <t>Create and host website</t>
   </si>
   <si>
-    <t>Add book functionality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit book status </t>
-  </si>
-  <si>
-    <t>Delete book functionality</t>
+    <t xml:space="preserve">Edit book status  </t>
+  </si>
+  <si>
+    <t>Delete book backend functionality</t>
+  </si>
+  <si>
+    <t>Add book (frontend) functionality</t>
+  </si>
+  <si>
+    <t>Delete book (frontend) functionality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -128,6 +131,12 @@
       <color rgb="FF434343"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -197,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,7 +222,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -222,6 +230,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,22 +452,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.46484375" customWidth="1"/>
+    <col min="2" max="2" width="56.86328125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +484,8 @@
         <v>4</v>
       </c>
       <c r="F1" s="2"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -493,344 +505,343 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>5</v>
       </c>
-      <c r="D2" s="12">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="18">
+        <v>45293</v>
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="13">
-        <v>2</v>
-      </c>
-      <c r="D3" s="13">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="12">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13">
-        <v>2</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="12">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="13">
-        <v>2</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="13">
-        <v>2</v>
-      </c>
-      <c r="D6" s="13">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="15">
-        <v>3</v>
-      </c>
-      <c r="D7" s="15">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="14">
+        <v>3</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="15">
-        <v>2</v>
-      </c>
-      <c r="D8" s="15">
-        <v>2</v>
-      </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15">
-        <v>2</v>
-      </c>
-      <c r="D9" s="15">
-        <v>2</v>
-      </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="14">
+        <v>2</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="15">
-        <v>3</v>
-      </c>
-      <c r="D10" s="15">
-        <v>2</v>
-      </c>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="14">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="15">
-        <v>4</v>
-      </c>
-      <c r="D11" s="15">
-        <v>2</v>
-      </c>
-      <c r="E11" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="14">
+        <v>3</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="15">
-        <v>4</v>
-      </c>
-      <c r="D12" s="15">
-        <v>3</v>
-      </c>
-      <c r="E12" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="14">
+        <v>3</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="14">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>4</v>
+      </c>
+      <c r="E13" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9">
+        <v>4</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="C13" s="15">
-        <v>5</v>
-      </c>
-      <c r="D13" s="15">
-        <v>3</v>
-      </c>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="B15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="9">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="15">
-        <v>3</v>
-      </c>
-      <c r="D14" s="15">
-        <v>2</v>
-      </c>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="15">
-        <v>2</v>
-      </c>
-      <c r="D16" s="15">
-        <v>2</v>
-      </c>
-      <c r="E16" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>5</v>
+      <c r="B17" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="C17" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="11">
-        <v>2</v>
-      </c>
-      <c r="D18" s="11">
-        <v>4</v>
-      </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="9">
+        <v>5</v>
+      </c>
+      <c r="D18" s="9">
+        <v>3</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="10">
-        <v>2</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="B19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="9">
+        <v>3</v>
+      </c>
+      <c r="D19" s="9">
         <v>4</v>
       </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9">
+        <v>4</v>
+      </c>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C21" s="10">
         <v>5</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D21" s="9">
         <v>4</v>
       </c>
-      <c r="E20" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>